--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H2">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I2">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J2">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9636299999999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N2">
-        <v>2.89089</v>
+        <v>0.38615</v>
       </c>
       <c r="O2">
-        <v>0.004634280881909668</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P2">
-        <v>0.004636691828827674</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q2">
-        <v>21.66356742867</v>
+        <v>2.587550775872223</v>
       </c>
       <c r="R2">
-        <v>194.97210685803</v>
+        <v>23.28795698285</v>
       </c>
       <c r="S2">
-        <v>0.0007675417689918321</v>
+        <v>8.000724804778366E-05</v>
       </c>
       <c r="T2">
-        <v>0.000770186194926731</v>
+        <v>8.036268948840508E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H3">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I3">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J3">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.62512099999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N3">
-        <v>214.875363</v>
+        <v>2.89089</v>
       </c>
       <c r="O3">
-        <v>0.3444588990740914</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P3">
-        <v>0.344638101013349</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q3">
-        <v>1610.219314851289</v>
+        <v>19.37155163139</v>
       </c>
       <c r="R3">
-        <v>14491.9738336616</v>
+        <v>174.34396468251</v>
       </c>
       <c r="S3">
-        <v>0.05705018739204261</v>
+        <v>0.0005989697094622745</v>
       </c>
       <c r="T3">
-        <v>0.0572467434639402</v>
+        <v>0.0006016307015800476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H4">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I4">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J4">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.324361</v>
+        <v>102.566826</v>
       </c>
       <c r="N4">
-        <v>0.648722</v>
+        <v>307.700478</v>
       </c>
       <c r="O4">
-        <v>0.001559914055329433</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P4">
-        <v>0.001040483725282092</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q4">
-        <v>7.292027432449001</v>
+        <v>2061.868731283578</v>
       </c>
       <c r="R4">
-        <v>43.75216459469401</v>
+        <v>18556.8185815522</v>
       </c>
       <c r="S4">
-        <v>0.0002583570620798021</v>
+        <v>0.06375312305520547</v>
       </c>
       <c r="T4">
-        <v>0.0001728314563145809</v>
+        <v>0.06403635366812849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H5">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I5">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J5">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>135.0220616666667</v>
+        <v>0.8471995</v>
       </c>
       <c r="N5">
-        <v>405.066185</v>
+        <v>1.694399</v>
       </c>
       <c r="O5">
-        <v>0.6493469059886695</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P5">
-        <v>0.6496847234325412</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q5">
-        <v>3035.459187939222</v>
+        <v>17.03098581025683</v>
       </c>
       <c r="R5">
-        <v>27319.132691453</v>
+        <v>102.185914861541</v>
       </c>
       <c r="S5">
-        <v>0.1075465397139541</v>
+        <v>0.0005265992532108633</v>
       </c>
       <c r="T5">
-        <v>0.1079170718078645</v>
+        <v>0.0003526258208117676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.50180766666667</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H6">
-        <v>88.50542300000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I6">
-        <v>0.2173444878184117</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J6">
-        <v>0.2179799065528387</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9636299999999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N6">
-        <v>2.89089</v>
+        <v>260.184174</v>
       </c>
       <c r="O6">
-        <v>0.004634280881909668</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P6">
-        <v>0.004636691828827674</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q6">
-        <v>28.42882692183</v>
+        <v>1743.466946273141</v>
       </c>
       <c r="R6">
-        <v>255.85944229647</v>
+        <v>15691.20251645826</v>
       </c>
       <c r="S6">
-        <v>0.001007235404685314</v>
+        <v>0.05390811795241667</v>
       </c>
       <c r="T6">
-        <v>0.001010705651562167</v>
+        <v>0.05414761099303161</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J7">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>71.62512099999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N7">
-        <v>214.875363</v>
+        <v>0.38615</v>
       </c>
       <c r="O7">
-        <v>0.3444588990740914</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P7">
-        <v>0.344638101013349</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q7">
-        <v>2113.070543843728</v>
+        <v>3.797374343494445</v>
       </c>
       <c r="R7">
-        <v>19017.63489459355</v>
+        <v>34.17636909145</v>
       </c>
       <c r="S7">
-        <v>0.07486624299375236</v>
+        <v>0.0001174150760105713</v>
       </c>
       <c r="T7">
-        <v>0.0751241810534376</v>
+        <v>0.0001179367060476767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J8">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.324361</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N8">
-        <v>0.648722</v>
+        <v>2.89089</v>
       </c>
       <c r="O8">
-        <v>0.001559914055329433</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P8">
-        <v>0.001040483725282092</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q8">
-        <v>9.569235836567668</v>
+        <v>28.42882692183001</v>
       </c>
       <c r="R8">
-        <v>57.41541501940601</v>
+        <v>255.85944229647</v>
       </c>
       <c r="S8">
-        <v>0.0003390387213963173</v>
+        <v>0.0008790212847033547</v>
       </c>
       <c r="T8">
-        <v>0.0002268045452067399</v>
+        <v>0.0008829264382912553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J9">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>135.0220616666667</v>
+        <v>102.566826</v>
       </c>
       <c r="N9">
-        <v>405.066185</v>
+        <v>307.700478</v>
       </c>
       <c r="O9">
-        <v>0.6493469059886695</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P9">
-        <v>0.6496847234325412</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q9">
-        <v>3983.394894046806</v>
+        <v>3025.906773632466</v>
       </c>
       <c r="R9">
-        <v>35850.55404642126</v>
+        <v>27233.16096269219</v>
       </c>
       <c r="S9">
-        <v>0.1411319706985777</v>
+        <v>0.09356124566323737</v>
       </c>
       <c r="T9">
-        <v>0.1416182153026322</v>
+        <v>0.09397690230380841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.76526900000001</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H10">
-        <v>128.295807</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I10">
-        <v>0.3150585073376216</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J10">
-        <v>0.3159795984589672</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.9636299999999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N10">
-        <v>2.89089</v>
+        <v>1.694399</v>
       </c>
       <c r="O10">
-        <v>0.004634280881909668</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P10">
-        <v>0.004636691828827674</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q10">
-        <v>41.20989616647</v>
+        <v>24.99391670429617</v>
       </c>
       <c r="R10">
-        <v>370.88906549823</v>
+        <v>149.963500225777</v>
       </c>
       <c r="S10">
-        <v>0.001460069617237736</v>
+        <v>0.0007728136244098249</v>
       </c>
       <c r="T10">
-        <v>0.001465100022250943</v>
+        <v>0.0005174979587996307</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.76526900000001</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H11">
-        <v>128.295807</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I11">
-        <v>0.3150585073376216</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J11">
-        <v>0.3159795984589672</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.62512099999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N11">
-        <v>214.875363</v>
+        <v>260.184174</v>
       </c>
       <c r="O11">
-        <v>0.3444588990740914</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P11">
-        <v>0.344638101013349</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q11">
-        <v>3063.06756672255</v>
+        <v>2558.634486419511</v>
       </c>
       <c r="R11">
-        <v>27567.60810050294</v>
+        <v>23027.7103777756</v>
       </c>
       <c r="S11">
-        <v>0.1085247065814437</v>
+        <v>0.07911315438808156</v>
       </c>
       <c r="T11">
-        <v>0.108898608771859</v>
+        <v>0.07946462371434825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H12">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I12">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J12">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.324361</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>0.648722</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.001559914055329433</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P12">
-        <v>0.001040483725282092</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q12">
-        <v>13.871385418109</v>
+        <v>7.951388460405556</v>
       </c>
       <c r="R12">
-        <v>83.22831250865401</v>
+        <v>71.56249614364999</v>
       </c>
       <c r="S12">
-        <v>0.0004914641938470674</v>
+        <v>0.0002458574783567327</v>
       </c>
       <c r="T12">
-        <v>0.0003287716297177257</v>
+        <v>0.0002469497286018915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H13">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I13">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J13">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>135.0220616666667</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N13">
-        <v>405.066185</v>
+        <v>2.89089</v>
       </c>
       <c r="O13">
-        <v>0.6493469059886695</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P13">
-        <v>0.6496847234325412</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q13">
-        <v>5774.25478810959</v>
+        <v>59.52761721171</v>
       </c>
       <c r="R13">
-        <v>51968.29309298631</v>
+        <v>535.7485549053901</v>
       </c>
       <c r="S13">
-        <v>0.2045822669450931</v>
+        <v>0.001840598020475709</v>
       </c>
       <c r="T13">
-        <v>0.2052871180351395</v>
+        <v>0.001848775089778382</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.1870385</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H14">
-        <v>2.374077</v>
+        <v>185.323051</v>
       </c>
       <c r="I14">
-        <v>0.008745100561913669</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J14">
-        <v>0.005847111567493933</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,95 +1302,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9636299999999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N14">
-        <v>2.89089</v>
+        <v>307.700478</v>
       </c>
       <c r="O14">
-        <v>0.004634280881909668</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P14">
-        <v>0.004636691828827674</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q14">
-        <v>1.143865909755</v>
+        <v>6335.999041902041</v>
       </c>
       <c r="R14">
-        <v>6.863195458529999</v>
+        <v>57023.99137711837</v>
       </c>
       <c r="S14">
-        <v>4.052725234445401E-05</v>
+        <v>0.1959095263763856</v>
       </c>
       <c r="T14">
-        <v>2.711125442724289E-05</v>
+        <v>0.196779877075676</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.1870385</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H15">
-        <v>2.374077</v>
+        <v>185.323051</v>
       </c>
       <c r="I15">
-        <v>0.008745100561913669</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J15">
-        <v>0.005847111567493933</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>71.62512099999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N15">
-        <v>214.875363</v>
+        <v>1.694399</v>
       </c>
       <c r="O15">
-        <v>0.3444588990740914</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P15">
-        <v>0.344638101013349</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q15">
-        <v>85.02177619415848</v>
+        <v>52.33519871522483</v>
       </c>
       <c r="R15">
-        <v>510.1306571649509</v>
+        <v>314.011192291349</v>
       </c>
       <c r="S15">
-        <v>0.003012327711849</v>
+        <v>0.001618207945630595</v>
       </c>
       <c r="T15">
-        <v>0.002015137427034295</v>
+        <v>0.001083598014225861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.1870385</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H16">
-        <v>2.374077</v>
+        <v>185.323051</v>
       </c>
       <c r="I16">
-        <v>0.008745100561913669</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J16">
-        <v>0.005847111567493933</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.324361</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N16">
-        <v>0.648722</v>
+        <v>260.184174</v>
       </c>
       <c r="O16">
-        <v>0.001559914055329433</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P16">
-        <v>0.001040483725282092</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q16">
-        <v>0.3850289948985</v>
+        <v>5357.569438621652</v>
       </c>
       <c r="R16">
-        <v>1.540115979594</v>
+        <v>48218.12494759487</v>
       </c>
       <c r="S16">
-        <v>1.364160528179846E-05</v>
+        <v>0.1656564157140214</v>
       </c>
       <c r="T16">
-        <v>6.083824425886099E-06</v>
+        <v>0.1663923634748344</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H17">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I17">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J17">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>135.0220616666667</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N17">
-        <v>405.066185</v>
+        <v>0.38615</v>
       </c>
       <c r="O17">
-        <v>0.6493469059886695</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P17">
-        <v>0.6496847234325412</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q17">
-        <v>160.2763855477075</v>
+        <v>0.1926904589583334</v>
       </c>
       <c r="R17">
-        <v>961.6583132862449</v>
+        <v>1.15614275375</v>
       </c>
       <c r="S17">
-        <v>0.005678603992438416</v>
+        <v>5.958002250651081E-06</v>
       </c>
       <c r="T17">
-        <v>0.003798779061606509</v>
+        <v>3.989647575882388E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.802223</v>
+        <v>1.4970125</v>
       </c>
       <c r="H18">
-        <v>119.406669</v>
+        <v>2.994025</v>
       </c>
       <c r="I18">
-        <v>0.2932292783449847</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J18">
-        <v>0.2940865504976541</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9636299999999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N18">
         <v>2.89089</v>
       </c>
       <c r="O18">
-        <v>0.004634280881909668</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P18">
-        <v>0.004636691828827674</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q18">
-        <v>38.35461614948999</v>
+        <v>1.442566155375</v>
       </c>
       <c r="R18">
-        <v>345.19154534541</v>
+        <v>8.655396932250001</v>
       </c>
       <c r="S18">
-        <v>0.001358906838650331</v>
+        <v>4.460424479188064E-05</v>
       </c>
       <c r="T18">
-        <v>0.00136358870566059</v>
+        <v>2.986826953422929E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.802223</v>
+        <v>1.4970125</v>
       </c>
       <c r="H19">
-        <v>119.406669</v>
+        <v>2.994025</v>
       </c>
       <c r="I19">
-        <v>0.2932292783449847</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J19">
-        <v>0.2940865504976541</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.62512099999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N19">
-        <v>214.875363</v>
+        <v>307.700478</v>
       </c>
       <c r="O19">
-        <v>0.3444588990740914</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P19">
-        <v>0.344638101013349</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q19">
-        <v>2850.839038443983</v>
+        <v>153.543820607325</v>
       </c>
       <c r="R19">
-        <v>25657.55134599585</v>
+        <v>921.26292364395</v>
       </c>
       <c r="S19">
-        <v>0.1010054343950038</v>
+        <v>0.004747585499029945</v>
       </c>
       <c r="T19">
-        <v>0.1013534302970779</v>
+        <v>0.003179118130650141</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.802223</v>
+        <v>1.4970125</v>
       </c>
       <c r="H20">
-        <v>119.406669</v>
+        <v>2.994025</v>
       </c>
       <c r="I20">
-        <v>0.2932292783449847</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J20">
-        <v>0.2940865504976541</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.324361</v>
+        <v>0.8471995</v>
       </c>
       <c r="N20">
-        <v>0.648722</v>
+        <v>1.694399</v>
       </c>
       <c r="O20">
-        <v>0.001559914055329433</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P20">
-        <v>0.001040483725282092</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q20">
-        <v>12.910288854503</v>
+        <v>1.26826824149375</v>
       </c>
       <c r="R20">
-        <v>77.46173312701799</v>
+        <v>5.073072965975</v>
       </c>
       <c r="S20">
-        <v>0.0004574124727244484</v>
+        <v>3.921494130066402E-05</v>
       </c>
       <c r="T20">
-        <v>0.0003059922696171592</v>
+        <v>1.750629253639141E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.802223</v>
+        <v>1.4970125</v>
       </c>
       <c r="H21">
-        <v>119.406669</v>
+        <v>2.994025</v>
       </c>
       <c r="I21">
-        <v>0.2932292783449847</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J21">
-        <v>0.2940865504976541</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>135.0220616666667</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N21">
-        <v>405.066185</v>
+        <v>260.184174</v>
       </c>
       <c r="O21">
-        <v>0.6493469059886695</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P21">
-        <v>0.6496847234325412</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q21">
-        <v>5374.178208376418</v>
+        <v>129.832986926725</v>
       </c>
       <c r="R21">
-        <v>48367.60387538777</v>
+        <v>778.9979215603501</v>
       </c>
       <c r="S21">
-        <v>0.1904075246386062</v>
+        <v>0.004014444890005936</v>
       </c>
       <c r="T21">
-        <v>0.1910635392252985</v>
+        <v>0.002688186350076555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H22">
+        <v>168.730668</v>
+      </c>
+      <c r="I22">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J22">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.38615</v>
+      </c>
+      <c r="O22">
+        <v>0.0006730831187380127</v>
+      </c>
+      <c r="P22">
+        <v>0.0006740785444489584</v>
+      </c>
+      <c r="Q22">
+        <v>7.2394830498</v>
+      </c>
+      <c r="R22">
+        <v>65.15534744819999</v>
+      </c>
+      <c r="S22">
+        <v>0.000223845314072274</v>
+      </c>
+      <c r="T22">
+        <v>0.0002248397727351027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H23">
+        <v>168.730668</v>
+      </c>
+      <c r="I23">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J23">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.89089</v>
+      </c>
+      <c r="O23">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P23">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q23">
+        <v>54.19797786828</v>
+      </c>
+      <c r="R23">
+        <v>487.78180081452</v>
+      </c>
+      <c r="S23">
+        <v>0.001675805205226975</v>
+      </c>
+      <c r="T23">
+        <v>0.001683250163413651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H24">
+        <v>168.730668</v>
+      </c>
+      <c r="I24">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J24">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>102.566826</v>
+      </c>
+      <c r="N24">
+        <v>307.700478</v>
+      </c>
+      <c r="O24">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P24">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q24">
+        <v>5768.723021873255</v>
+      </c>
+      <c r="R24">
+        <v>51918.5071968593</v>
+      </c>
+      <c r="S24">
+        <v>0.178369312800981</v>
+      </c>
+      <c r="T24">
+        <v>0.1791617390754952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H25">
+        <v>168.730668</v>
+      </c>
+      <c r="I25">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J25">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.8471995</v>
+      </c>
+      <c r="N25">
+        <v>1.694399</v>
+      </c>
+      <c r="O25">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P25">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q25">
+        <v>47.64951252142199</v>
+      </c>
+      <c r="R25">
+        <v>285.897075128532</v>
+      </c>
+      <c r="S25">
+        <v>0.00147332620608085</v>
+      </c>
+      <c r="T25">
+        <v>0.0009865810852844369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H26">
+        <v>168.730668</v>
+      </c>
+      <c r="I26">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J26">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N26">
+        <v>260.184174</v>
+      </c>
+      <c r="O26">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P26">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q26">
+        <v>4877.894386894247</v>
+      </c>
+      <c r="R26">
+        <v>43901.04948204823</v>
+      </c>
+      <c r="S26">
+        <v>0.1508248301066041</v>
+      </c>
+      <c r="T26">
+        <v>0.1514948868352465</v>
       </c>
     </row>
   </sheetData>
